--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushi/github/BCA-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E0D080-1324-BD4F-BD70-72B07B6802EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ED4630-E21E-804C-A224-4491DA7CE838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="End point_1" sheetId="4" r:id="rId1"/>
-    <sheet name="End point" sheetId="3" r:id="rId2"/>
-    <sheet name="Linear regression fit" sheetId="2" r:id="rId3"/>
-    <sheet name="Protocol Information" sheetId="1" r:id="rId4"/>
+    <sheet name="End point_1" sheetId="3" r:id="rId1"/>
+    <sheet name="End point" sheetId="4" r:id="rId2"/>
+    <sheet name="Linear regression fit" sheetId="5" r:id="rId3"/>
+    <sheet name="Protocol Information" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,100 +31,64 @@
     <t>Path: C:\Program Files (x86)\BMG\OPTIMA\User\Data\</t>
   </si>
   <si>
+    <t>Test ID: XXXX</t>
+  </si>
+  <si>
+    <t>Test Name: YYYY_BCA</t>
+  </si>
+  <si>
+    <t>Date: 06/01/2022</t>
+  </si>
+  <si>
+    <t>Time: 10:33:05</t>
+  </si>
+  <si>
+    <t>ID1: NNNNNNNNNNNNN</t>
+  </si>
+  <si>
+    <t>Absorbance</t>
+  </si>
+  <si>
+    <t>Absorbance values are displayed as OD</t>
+  </si>
+  <si>
+    <t>1. Raw Data (540-20)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Average of all blanks used</t>
+  </si>
+  <si>
     <t>Test ID: 2244</t>
   </si>
   <si>
     <t>Test Name: YUSHI BCA</t>
   </si>
   <si>
-    <t>Date: 06/01/2022</t>
-  </si>
-  <si>
-    <t>Time: 10:33:05</t>
-  </si>
-  <si>
     <t>ID1: 20220106</t>
-  </si>
-  <si>
-    <t>Absorbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Basic settings </t>
-  </si>
-  <si>
-    <t>Measurement type:</t>
-  </si>
-  <si>
-    <t>Microplate name:</t>
-  </si>
-  <si>
-    <t>NUNC 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Endpoint settings </t>
-  </si>
-  <si>
-    <t>No. of flashes per well:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Optic settings </t>
-  </si>
-  <si>
-    <t>Excitation:</t>
-  </si>
-  <si>
-    <t>540-20</t>
-  </si>
-  <si>
-    <t>Emission:</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General settings </t>
-  </si>
-  <si>
-    <t>Bottom optic used</t>
-  </si>
-  <si>
-    <t>Settling time [s]:</t>
-  </si>
-  <si>
-    <t>Reading direction:</t>
-  </si>
-  <si>
-    <t>bidirectional, horizontal left to right, top to bottom</t>
-  </si>
-  <si>
-    <t>Target temperature [°C]:</t>
-  </si>
-  <si>
-    <t>Absorbance values are displayed as OD</t>
-  </si>
-  <si>
-    <t>Formula:</t>
-  </si>
-  <si>
-    <t>Y = Slope * x + Offset</t>
-  </si>
-  <si>
-    <t>Fit results are based on OD values</t>
-  </si>
-  <si>
-    <t>Wavelength:</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>r²</t>
   </si>
   <si>
     <t>Well
@@ -152,82 +105,115 @@
     <t>Raw Data (540-20)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Blank B</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Sample X1</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Standard S1</t>
   </si>
   <si>
     <t>Sample X2</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Standard S2</t>
   </si>
   <si>
     <t>Sample X3</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Standard S3</t>
   </si>
   <si>
     <t>Sample X4</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Standard S4</t>
   </si>
   <si>
     <t>Sample X5</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Standard S5</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Standard S6</t>
   </si>
   <si>
-    <t>1. Raw Data (540-20)</t>
-  </si>
-  <si>
-    <t>Average of all blanks used</t>
-  </si>
-  <si>
-    <t>Test ID: XXXX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Test Name: YYYY_BCA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ID1: NNNNNNNNNNNNN</t>
-    <phoneticPr fontId="2"/>
+    <t>Formula:</t>
+  </si>
+  <si>
+    <t>Y = Slope * x + Offset</t>
+  </si>
+  <si>
+    <t>Fit results are based on OD values</t>
+  </si>
+  <si>
+    <t>Wavelength:</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r²</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basic settings </t>
+  </si>
+  <si>
+    <t>Measurement type:</t>
+  </si>
+  <si>
+    <t>Microplate name:</t>
+  </si>
+  <si>
+    <t>NUNC 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Endpoint settings </t>
+  </si>
+  <si>
+    <t>No. of flashes per well:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optic settings </t>
+  </si>
+  <si>
+    <t>Excitation:</t>
+  </si>
+  <si>
+    <t>540-20</t>
+  </si>
+  <si>
+    <t>Emission:</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General settings </t>
+  </si>
+  <si>
+    <t>Bottom optic used</t>
+  </si>
+  <si>
+    <t>Settling time [s]:</t>
+  </si>
+  <si>
+    <t>Reading direction:</t>
+  </si>
+  <si>
+    <t>bidirectional, horizontal left to right, top to bottom</t>
+  </si>
+  <si>
+    <t>Target temperature [°C]:</t>
   </si>
 </sst>
 </file>
@@ -504,7 +490,7 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -566,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -579,7 +565,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -596,104 +582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>197832</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>75334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="10858500"/>
-          <a:ext cx="17552382" cy="6933334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>483582</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>75334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7439025"/>
-          <a:ext cx="17552382" cy="6933334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:O56"/>
   <sheetViews>
@@ -1024,56 +912,56 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1116,7 +1004,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -1137,7 +1025,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="19" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="23"/>
@@ -1158,7 +1046,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="23"/>
@@ -1183,7 +1071,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="19" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="23"/>
@@ -1208,7 +1096,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="23"/>
@@ -1233,7 +1121,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="23"/>
@@ -1258,7 +1146,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="23"/>
@@ -1279,7 +1167,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="19" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -1339,12 +1227,12 @@
         <v>12</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
@@ -1362,7 +1250,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="19" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="23"/>
@@ -1383,7 +1271,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="23"/>
@@ -1408,7 +1296,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="19" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="23"/>
@@ -1433,7 +1321,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="23"/>
@@ -1458,7 +1346,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="19" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="23"/>
@@ -1483,7 +1371,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="23"/>
@@ -1504,7 +1392,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="19" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -1563,7 +1451,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1580,7 +1468,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="19" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="23"/>
@@ -1601,7 +1489,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="23"/>
@@ -1626,7 +1514,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="19" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="23"/>
@@ -1651,7 +1539,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="23"/>
@@ -1676,7 +1564,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="19" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="23"/>
@@ -1701,7 +1589,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="23"/>
@@ -1722,7 +1610,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="19" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -1781,7 +1669,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
@@ -1798,7 +1686,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="19" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="23"/>
@@ -1819,7 +1707,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="23"/>
@@ -1844,7 +1732,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="19" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="23"/>
@@ -1869,7 +1757,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="23"/>
@@ -1894,7 +1782,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="19" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="23"/>
@@ -1919,7 +1807,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="23"/>
@@ -1940,7 +1828,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="19" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -1962,12 +1850,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -1978,60 +1865,60 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31" thickBot="1">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2039,13 +1926,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8">
         <v>0.17299999999999999</v>
@@ -2056,13 +1943,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13">
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12">
         <v>0.17799999999999999</v>
@@ -2073,13 +1960,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12">
         <v>0.27600000000000002</v>
@@ -2096,13 +1983,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B15" s="13">
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D15" s="12">
         <v>0.28199999999999997</v>
@@ -2119,13 +2006,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13">
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D16" s="12">
         <v>1.0209999999999999</v>
@@ -2142,13 +2029,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B17" s="13">
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D17" s="12">
         <v>1.1060000000000001</v>
@@ -2165,13 +2052,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D18" s="12">
         <v>0.25800000000000001</v>
@@ -2188,13 +2075,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B19" s="13">
         <v>6</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D19" s="12">
         <v>0.248</v>
@@ -2211,13 +2098,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D20" s="12">
         <v>0.63300000000000001</v>
@@ -2234,13 +2121,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B21" s="13">
         <v>4</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D21" s="12">
         <v>0.65100000000000002</v>
@@ -2257,13 +2144,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B22" s="13">
         <v>5</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D22" s="12">
         <v>0.26800000000000002</v>
@@ -2280,13 +2167,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B23" s="13">
         <v>6</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D23" s="12">
         <v>0.27</v>
@@ -2303,13 +2190,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D24" s="12">
         <v>0.40699999999999997</v>
@@ -2326,13 +2213,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B25" s="13">
         <v>4</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D25" s="12">
         <v>0.48</v>
@@ -2349,13 +2236,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D26" s="12">
         <v>0.23499999999999999</v>
@@ -2372,13 +2259,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B27" s="13">
         <v>6</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D27" s="12">
         <v>0.22900000000000001</v>
@@ -2395,13 +2282,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B28" s="13">
         <v>3</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D28" s="12">
         <v>0.28999999999999998</v>
@@ -2418,13 +2305,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B29" s="13">
         <v>4</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D29" s="12">
         <v>0.29799999999999999</v>
@@ -2441,13 +2328,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B30" s="13">
         <v>5</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D30" s="12">
         <v>0.189</v>
@@ -2464,13 +2351,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B31" s="13">
         <v>6</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D31" s="12">
         <v>0.19400000000000001</v>
@@ -2487,13 +2374,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B32" s="13">
         <v>3</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D32" s="12">
         <v>0.217</v>
@@ -2510,13 +2397,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B33" s="13">
         <v>4</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D33" s="12">
         <v>0.21299999999999999</v>
@@ -2533,13 +2420,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B34" s="13">
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D34" s="12">
         <v>0.187</v>
@@ -2556,13 +2443,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B35" s="13">
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D35" s="12">
         <v>0.17</v>
@@ -2580,12 +2467,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:D18"/>
   <sheetViews>
@@ -2596,67 +2482,67 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>0.45165828002842928</v>
@@ -2664,7 +2550,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>7.825870646767137E-4</v>
@@ -2672,7 +2558,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>0.99716392808401133</v>
@@ -2680,7 +2566,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>0.99433589947193535</v>
@@ -2693,67 +2579,67 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -2761,10 +2647,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2773,12 +2659,12 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
@@ -2790,23 +2676,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2815,17 +2701,17 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0.5</v>
@@ -2833,15 +2719,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3">
         <v>25</v>
@@ -2854,6 +2740,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,42 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushi/github/BCA-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ED4630-E21E-804C-A224-4491DA7CE838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAAE8DC-B9D6-E245-9D98-36B89676EDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="End point_1" sheetId="3" r:id="rId1"/>
-    <sheet name="End point" sheetId="4" r:id="rId2"/>
-    <sheet name="Linear regression fit" sheetId="5" r:id="rId3"/>
-    <sheet name="Protocol Information" sheetId="6" r:id="rId4"/>
+    <sheet name="Result" sheetId="1" r:id="rId1"/>
+    <sheet name="End point_1" sheetId="2" r:id="rId2"/>
+    <sheet name="End point" sheetId="3" r:id="rId3"/>
+    <sheet name="Linear regression fit" sheetId="4" r:id="rId4"/>
+    <sheet name="Protocol Information" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
   <si>
     <t>User: USER</t>
   </si>
   <si>
+    <t>Formula:</t>
+  </si>
+  <si>
+    <t>Y = Slope * x + Offset</t>
+  </si>
+  <si>
     <t>Path: C:\Program Files (x86)\BMG\OPTIMA\User\Data\</t>
   </si>
   <si>
+    <t>Fit results are based on OD values</t>
+  </si>
+  <si>
     <t>Test ID: XXXX</t>
   </si>
   <si>
     <t>Test Name: YYYY_BCA</t>
   </si>
   <si>
+    <t>Wavelength:</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
     <t>Date: 06/01/2022</t>
   </si>
   <si>
+    <t>Offset</t>
+  </si>
+  <si>
     <t>Time: 10:33:05</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>ID1: NNNNNNNNNNNNN</t>
+  </si>
+  <si>
+    <t>r²</t>
   </si>
   <si>
     <t>Absorbance</t>
@@ -139,30 +164,6 @@
   </si>
   <si>
     <t>Standard S6</t>
-  </si>
-  <si>
-    <t>Formula:</t>
-  </si>
-  <si>
-    <t>Y = Slope * x + Offset</t>
-  </si>
-  <si>
-    <t>Fit results are based on OD values</t>
-  </si>
-  <si>
-    <t>Wavelength:</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>r²</t>
   </si>
   <si>
     <t xml:space="preserve"> Basic settings </t>
@@ -904,11 +905,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0.45165828002842928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>7.825870646767137E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0.99716392808401133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>0.99433589947193535</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -923,45 +1013,45 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1004,7 +1094,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -1025,7 +1115,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="23"/>
@@ -1046,7 +1136,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="23"/>
@@ -1071,7 +1161,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="23"/>
@@ -1096,7 +1186,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="23"/>
@@ -1121,7 +1211,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="23"/>
@@ -1146,7 +1236,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="23"/>
@@ -1167,7 +1257,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -1227,12 +1317,12 @@
         <v>12</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
@@ -1250,7 +1340,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="23"/>
@@ -1271,7 +1361,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="23"/>
@@ -1296,7 +1386,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="23"/>
@@ -1321,7 +1411,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="23"/>
@@ -1346,7 +1436,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="23"/>
@@ -1371,7 +1461,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="23"/>
@@ -1392,7 +1482,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -1451,7 +1541,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1468,7 +1558,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="23"/>
@@ -1489,7 +1579,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="23"/>
@@ -1514,7 +1604,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="23"/>
@@ -1539,7 +1629,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="23"/>
@@ -1564,7 +1654,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="23"/>
@@ -1589,7 +1679,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="23"/>
@@ -1610,7 +1700,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -1669,7 +1759,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
@@ -1686,7 +1776,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="23"/>
@@ -1707,7 +1797,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="23"/>
@@ -1732,7 +1822,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="23"/>
@@ -1757,7 +1847,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="23"/>
@@ -1782,7 +1872,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="23"/>
@@ -1807,7 +1897,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="23"/>
@@ -1828,7 +1918,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -1853,8 +1943,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -1871,54 +1961,54 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31" customHeight="1" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1926,13 +2016,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8">
         <v>0.17299999999999999</v>
@@ -1943,13 +2033,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13">
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13" s="12">
         <v>0.17799999999999999</v>
@@ -1960,13 +2050,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12">
         <v>0.27600000000000002</v>
@@ -1983,13 +2073,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15" s="13">
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12">
         <v>0.28199999999999997</v>
@@ -2006,13 +2096,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B16" s="13">
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12">
         <v>1.0209999999999999</v>
@@ -2029,13 +2119,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B17" s="13">
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D17" s="12">
         <v>1.1060000000000001</v>
@@ -2052,13 +2142,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D18" s="12">
         <v>0.25800000000000001</v>
@@ -2075,13 +2165,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>6</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D19" s="12">
         <v>0.248</v>
@@ -2098,13 +2188,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D20" s="12">
         <v>0.63300000000000001</v>
@@ -2121,13 +2211,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" s="13">
         <v>4</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D21" s="12">
         <v>0.65100000000000002</v>
@@ -2144,13 +2234,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22" s="13">
         <v>5</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D22" s="12">
         <v>0.26800000000000002</v>
@@ -2167,13 +2257,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="13">
         <v>6</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D23" s="12">
         <v>0.27</v>
@@ -2190,13 +2280,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D24" s="12">
         <v>0.40699999999999997</v>
@@ -2213,13 +2303,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="13">
         <v>4</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="12">
         <v>0.48</v>
@@ -2236,13 +2326,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D26" s="12">
         <v>0.23499999999999999</v>
@@ -2259,13 +2349,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B27" s="13">
         <v>6</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D27" s="12">
         <v>0.22900000000000001</v>
@@ -2282,13 +2372,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B28" s="13">
         <v>3</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D28" s="12">
         <v>0.28999999999999998</v>
@@ -2305,13 +2395,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B29" s="13">
         <v>4</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D29" s="12">
         <v>0.29799999999999999</v>
@@ -2328,13 +2418,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B30" s="13">
         <v>5</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D30" s="12">
         <v>0.189</v>
@@ -2351,13 +2441,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B31" s="13">
         <v>6</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D31" s="12">
         <v>0.19400000000000001</v>
@@ -2374,13 +2464,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B32" s="13">
         <v>3</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D32" s="12">
         <v>0.217</v>
@@ -2397,13 +2487,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B33" s="13">
         <v>4</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D33" s="12">
         <v>0.21299999999999999</v>
@@ -2420,13 +2510,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B34" s="13">
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D34" s="12">
         <v>0.187</v>
@@ -2443,13 +2533,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B35" s="13">
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D35" s="12">
         <v>0.17</v>
@@ -2470,13 +2560,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2488,61 +2578,61 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0.45165828002842928</v>
@@ -2550,7 +2640,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>7.825870646767137E-4</v>
@@ -2558,7 +2648,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>0.99716392808401133</v>
@@ -2566,7 +2656,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0.99433589947193535</v>
@@ -2578,8 +2668,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -2599,37 +2689,37 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2642,7 +2732,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="End point_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="End point" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Linear regression fit" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Protocol Information" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End point_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End point" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Linear regression fit" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol Information" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -506,13 +506,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>1</col>
@@ -539,24 +539,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="285750" y="10858500"/>
           <a:ext cx="17552382" cy="6933334"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>1</col>
@@ -585,24 +585,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="609600" y="7439025"/>
           <a:ext cx="17552382" cy="6933334"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1279,12 +1279,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0" fitToWidth="1"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2321,12 +2321,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3066,7 +3066,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
